--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools/Tourism.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools/Tourism.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts^J Line Charts^J and What-If Analysis Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_DA7AE74E2BA2EA2C9F5188A68C4C241B39B0EBD6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{774A03EF-5F50-4BFD-A259-6BB552C66F4E}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{C28E6760-4ABA-46DC-BB25-EF3272C80786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{700DA285-A126-4086-B43D-7E7B8818B9AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -171,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -207,7 +210,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -255,7 +258,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Tourism Spending: 2010 - 2014</a:t>
+              <a:t>Tourism Spending 2010 to 2014</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -334,9 +337,10 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Tourism!$B$3:$F$4</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Tourism!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
@@ -353,8 +357,8 @@
                 <c:pt idx="4">
                   <c:v>2014</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -383,7 +387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEE6-4EAF-8978-51E95D6EB69E}"/>
+              <c16:uniqueId val="{00000000-C3AF-4C23-8BA5-65E70388CC7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -397,11 +401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390306847"/>
-        <c:axId val="390252975"/>
+        <c:axId val="689002287"/>
+        <c:axId val="688999791"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390306847"/>
+        <c:axId val="689002287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,9 +418,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -426,7 +428,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -438,7 +440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390252975"/>
+        <c:crossAx val="688999791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -446,20 +448,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390252975"/>
+        <c:axId val="688999791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -473,9 +473,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -484,7 +482,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -496,9 +494,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390306847"/>
+        <c:crossAx val="689002287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -522,23 +521,16 @@
   <c:spPr>
     <a:blipFill dpi="0" rotWithShape="1">
       <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-        <a:extLst>
-          <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-            <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-          </a:ext>
-        </a:extLst>
+        <a:alphaModFix amt="98000"/>
       </a:blip>
       <a:srcRect/>
       <a:stretch>
         <a:fillRect/>
       </a:stretch>
     </a:blipFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="50800" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1115,17 +1107,17 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B914CAA6-4F28-4545-B328-E8C0D6A0571A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DBC844-4ED5-485E-8885-4183D830AE53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,16 +1401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1546,19 +1542,19 @@
       <c r="B30" s="2">
         <v>11086354</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <f>B30*(100%+$B$27)</f>
         <v>13414488.34</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <f t="shared" ref="D30:F30" si="1">C30*(100%+$B$27)</f>
         <v>16231530.8914</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>19640152.378594</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>23764584.378098737</v>
       </c>
@@ -1574,23 +1570,23 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>2014</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>2015</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>2016</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>2017</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>2018</v>
       </c>
     </row>
@@ -1618,19 +1614,19 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>11086354</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>13414488.34</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>16231530.8914</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>19640152.378594</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>23764584.378098737</v>
       </c>
     </row>
@@ -1641,7 +1637,11 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>